--- a/iHRM-test-case.xlsx
+++ b/iHRM-test-case.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test-Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF138C17-5F33-46FC-BBFF-01BF657205B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A81BC53-DDE6-46DD-BD37-6310204A2204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15823" yWindow="3171" windowWidth="15968" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="18069" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="登陆界面测试" sheetId="1" r:id="rId1"/>
-    <sheet name="注册页面测试" sheetId="2" r:id="rId2"/>
+    <sheet name="登陆界面功能测试" sheetId="1" r:id="rId1"/>
+    <sheet name="注册页面功能测试" sheetId="2" r:id="rId2"/>
     <sheet name="首页功能测试" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="190">
   <si>
     <t>测试用例表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -720,6 +720,147 @@
   </si>
   <si>
     <t>iHRM-AT-045</t>
+  </si>
+  <si>
+    <t>测试左侧跳转栏折叠按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击状态栏折叠按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态栏折叠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏折叠按钮功能测试（折叠）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏折叠按钮功能测试（展开）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转栏处于展开状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转栏处于折叠状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态栏展开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏跳转按钮跳转功能测试（组织架构）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏跳转按钮跳转功能测试（员工）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏跳转按钮跳转功能测试（公司设置）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏跳转按钮跳转功能测试（权限设置）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏跳转按钮跳转功能测试（社保）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏跳转按钮跳转功能测试（考勤）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏跳转按钮跳转功能测试（工资）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧跳转栏跳转按钮跳转功能测试（审批）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试左侧跳转栏跳转按钮跳转功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击跳转栏组织架构按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击跳转栏员工按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击跳转栏公司设置按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击跳转栏权限设置按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击跳转栏社保按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击跳转栏考勤按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击跳转栏工资按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统首页
+2.点击跳转栏审批按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示组织架构页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示工资页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示审批页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示考勤页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示社保页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示权限设置页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示公司设置页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示员工页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -899,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -937,6 +1078,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,17 +1102,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1261,57 +1399,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1777,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AE16D1-6D8F-45B4-81C5-C42B24BDC9A1}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1791,55 +1929,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2068,16 +2206,16 @@
       <c r="B14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2088,16 +2226,16 @@
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2108,7 +2246,7 @@
       <c r="B16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -2117,7 +2255,7 @@
       <c r="F16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="12" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2128,7 +2266,7 @@
       <c r="B17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -2137,7 +2275,7 @@
       <c r="F17" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="12" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2148,7 +2286,7 @@
       <c r="B18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -2157,7 +2295,7 @@
       <c r="F18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2168,7 +2306,7 @@
       <c r="B19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -2177,7 +2315,7 @@
       <c r="F19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="12" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2188,16 +2326,16 @@
       <c r="B20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2217,68 +2355,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C145A28-0386-45FF-A596-76C248D4FFCC}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.35546875" customWidth="1"/>
-    <col min="3" max="3" width="13.0703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2296,9 +2438,7 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2315,117 +2455,353 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:11" ht="57.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="C5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="C6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
       <c r="B10" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="C14" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
       <c r="B15" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
       <c r="B19" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
       <c r="B21" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
       <c r="B23" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>156</v>
       </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="E7:E14"/>
+    <mergeCell ref="D7:D14"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:K2"/>
@@ -2435,5 +2811,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>